--- a/db-access-matrix.xlsx
+++ b/db-access-matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Drive\Projects\RBS\Works\BFGUI_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B3BCC4-C355-481F-8F95-AE80C857F808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B76B5-DE81-454F-BA47-A33ED7D6731E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{E075D4BB-C6DA-45B7-AF4B-830CBE8DAD2C}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{E075D4BB-C6DA-45B7-AF4B-830CBE8DAD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="roles and accs" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="81">
   <si>
     <t>Grants</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>FB_CHANGE_CONTROL, SCT_ENTITY, SCT_ENTITY_LOG, SCT_SCHEDULE, SCT_TRUSTED_CERTIFICATE, SCT_TRUSTED_CERTIFICATE_LOG, SFG_CHANGE_CONTROL</t>
-  </si>
-  <si>
-    <t>FB_CHANGE_CONTROL, SCT_ENTITY, SCT_TRUSTED_CERTIFICATE, SCT_TRUSTED_CERTIFICATE_LOG</t>
   </si>
   <si>
     <t>SCT_PAYMENT, SCT_PAYMENT_ARCHIVE, SCT_BUNDLE</t>
@@ -287,6 +284,15 @@
 FG_ROUTE
 FG_ARRIVEDFILE
 MBX_MESSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB_CHANGE_CONTROL, SCT_ENTITY, SCT_TRUSTED_CERTIFICATE, SCT_TRUSTED_CERTIFICATE_LOG,SCT_BUNDLE_IDSEQ </t>
+  </si>
+  <si>
+    <t>EXECUTE</t>
+  </si>
+  <si>
+    <t>GET_ASYNC_CD_FILELIST</t>
   </si>
 </sst>
 </file>
@@ -688,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AEDCCC-3228-41E8-A6E0-A7AD92E795DC}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +722,7 @@
         <v>53</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>54</v>
@@ -739,7 +745,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -756,7 +762,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -776,7 +782,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -796,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -807,22 +813,22 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -830,19 +836,19 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -851,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>7</v>
@@ -863,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -871,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>27</v>
@@ -883,7 +889,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>56</v>
@@ -901,13 +907,30 @@
         <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -927,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -944,7 +967,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -961,7 +984,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -978,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
